--- a/MethodDemos/docs/Fileproperties.xlsx
+++ b/MethodDemos/docs/Fileproperties.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="26">
   <si>
     <t>Dateien</t>
   </si>
@@ -84,6 +84,24 @@
   </si>
   <si>
     <t>ANSI</t>
+  </si>
+  <si>
+    <t>all-best-*.csv</t>
+  </si>
+  <si>
+    <t>all-delta-*.csv</t>
+  </si>
+  <si>
+    <t>Kommentar</t>
+  </si>
+  <si>
+    <t>werden aus xlsx erstellt</t>
+  </si>
+  <si>
+    <t>erstellt in</t>
+  </si>
+  <si>
+    <t>XlsxToCsv</t>
   </si>
 </sst>
 </file>
@@ -435,18 +453,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -459,8 +478,14 @@
       <c r="E1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -477,7 +502,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>13</v>
       </c>
@@ -488,7 +513,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>14</v>
       </c>
@@ -499,7 +524,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -513,7 +538,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>14</v>
       </c>
@@ -524,7 +549,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -538,7 +563,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>14</v>
       </c>
@@ -549,7 +574,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>6</v>
       </c>
@@ -563,7 +588,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>14</v>
       </c>
@@ -574,7 +599,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -588,7 +613,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -605,15 +630,38 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
       </c>
       <c r="E13" t="s">
         <v>17</v>
+      </c>
+      <c r="F13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
